--- a/Documentation/Willow_Joystick_BOM.xlsx
+++ b/Documentation/Willow_Joystick_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 24-12 Willow Joystick/Willow-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="780" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017F6799-68B7-4DEE-82BF-40E5903B5C10}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C2DDDE-FC4D-413C-BAC9-0CB5895B7A6C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="68">
-        <v>45709</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">

--- a/Documentation/Willow_Joystick_BOM.xlsx
+++ b/Documentation/Willow_Joystick_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 24-12 Willow Joystick/Willow-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="781" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C2DDDE-FC4D-413C-BAC9-0CB5895B7A6C}"/>
+  <xr:revisionPtr revIDLastSave="794" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F636EE4-A56C-4CE1-8B85-01A9D1E43D6A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -712,7 +712,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +819,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -856,19 +862,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1070,6 +1063,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1090,17 +1094,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
@@ -1114,66 +1118,63 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="12" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="13" borderId="6" xfId="12" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="12" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="5" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="13" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="14" borderId="9" xfId="13" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="13" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="14" borderId="10" xfId="13" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="11" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="9" xfId="11" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="11" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="12" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="12" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="15" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="12" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="15" borderId="7" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="14" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="14" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="17" borderId="15" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="17" borderId="16" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="17" borderId="17" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,9 +1183,13 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="10" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1486,7 +1491,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,12 +1503,12 @@
     <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1511,17 +1516,17 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1535,19 +1540,21 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="62">
         <v>45723</v>
       </c>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="53" t="s">
         <v>29</v>
       </c>
       <c r="M4" t="s">
@@ -1559,16 +1566,16 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="I5" s="60">
+      <c r="I5" s="77">
         <f>SUM(H42:H66)</f>
         <v>169</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57">
+      <c r="J5" s="78"/>
+      <c r="K5" s="73">
         <f>K6+K67+K40</f>
         <v>135.23620000000003</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="54">
         <f>L6+L67+L40</f>
         <v>179.04</v>
       </c>
@@ -1588,7 +1595,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="61">
+      <c r="K6" s="55">
         <f>SUM(K8:K39)</f>
         <v>124.83620000000002</v>
       </c>
@@ -1638,22 +1645,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -1694,7 +1701,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1737,7 +1744,7 @@
         <v>13.64</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="64" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1780,7 +1787,7 @@
         <v>3.54</v>
       </c>
       <c r="M11" s="16"/>
-      <c r="N11" s="70" t="s">
+      <c r="N11" s="64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1823,7 +1830,7 @@
         <v>1.39</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="64" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1866,7 +1873,7 @@
         <v>3.01</v>
       </c>
       <c r="M13" s="16"/>
-      <c r="N13" s="70" t="s">
+      <c r="N13" s="64" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1909,7 +1916,7 @@
         <v>3.94</v>
       </c>
       <c r="M14" s="16"/>
-      <c r="N14" s="70" t="s">
+      <c r="N14" s="64" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1952,7 +1959,7 @@
         <v>1.45</v>
       </c>
       <c r="M15" s="16"/>
-      <c r="N15" s="70" t="s">
+      <c r="N15" s="64" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1995,7 +2002,7 @@
         <v>1.44</v>
       </c>
       <c r="M16" s="16"/>
-      <c r="N16" s="70" t="s">
+      <c r="N16" s="64" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2037,7 +2044,7 @@
         <v>1.8</v>
       </c>
       <c r="M17" s="16"/>
-      <c r="N17" s="70" t="s">
+      <c r="N17" s="64" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2080,27 +2087,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M18" s="16"/>
-      <c r="N18" s="70" t="s">
+      <c r="N18" s="64" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="77"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="71"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
@@ -2141,7 +2148,7 @@
         <v>1.39</v>
       </c>
       <c r="M20" s="16"/>
-      <c r="N20" s="69" t="s">
+      <c r="N20" s="63" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2184,7 +2191,7 @@
         <v>15.85</v>
       </c>
       <c r="M21" s="16"/>
-      <c r="N21" s="69" t="s">
+      <c r="N21" s="63" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2227,7 +2234,7 @@
         <v>0.37</v>
       </c>
       <c r="M22" s="16"/>
-      <c r="N22" s="69" t="s">
+      <c r="N22" s="63" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2270,7 +2277,7 @@
         <v>6.87</v>
       </c>
       <c r="M23" s="16"/>
-      <c r="N23" s="69" t="s">
+      <c r="N23" s="63" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2313,7 +2320,7 @@
         <v>2.04</v>
       </c>
       <c r="M24" s="16"/>
-      <c r="N24" s="69" t="s">
+      <c r="N24" s="63" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2356,7 +2363,7 @@
         <v>1.76</v>
       </c>
       <c r="M25" s="16"/>
-      <c r="N25" s="69" t="s">
+      <c r="N25" s="63" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2399,7 +2406,7 @@
         <v>0.19</v>
       </c>
       <c r="M26" s="16"/>
-      <c r="N26" s="69" t="s">
+      <c r="N26" s="63" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2442,7 +2449,7 @@
         <v>30.47</v>
       </c>
       <c r="M27" s="16"/>
-      <c r="N27" s="69" t="s">
+      <c r="N27" s="63" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2485,7 +2492,7 @@
         <v>0.92</v>
       </c>
       <c r="M28" s="16"/>
-      <c r="N28" s="69" t="s">
+      <c r="N28" s="63" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2528,7 +2535,7 @@
         <v>0.78</v>
       </c>
       <c r="M29" s="16"/>
-      <c r="N29" s="69" t="s">
+      <c r="N29" s="63" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2571,7 +2578,7 @@
         <v>0.48</v>
       </c>
       <c r="M30" s="16"/>
-      <c r="N30" s="69" t="s">
+      <c r="N30" s="63" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2614,7 +2621,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="69" t="s">
+      <c r="N31" s="63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2657,7 +2664,7 @@
         <v>1.01</v>
       </c>
       <c r="M32" s="16"/>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2700,7 +2707,7 @@
         <v>2.34</v>
       </c>
       <c r="M33" s="16"/>
-      <c r="N33" s="69" t="s">
+      <c r="N33" s="63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2743,7 +2750,7 @@
         <v>1.71</v>
       </c>
       <c r="M34" s="16"/>
-      <c r="N34" s="69" t="s">
+      <c r="N34" s="63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2786,7 +2793,7 @@
         <v>1.8</v>
       </c>
       <c r="M35" s="16"/>
-      <c r="N35" s="69" t="s">
+      <c r="N35" s="63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2829,7 +2836,7 @@
         <v>1.66</v>
       </c>
       <c r="M36" s="16"/>
-      <c r="N36" s="69" t="s">
+      <c r="N36" s="63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2872,7 +2879,7 @@
         <v>3.7800000000000002</v>
       </c>
       <c r="M37" s="16"/>
-      <c r="N37" s="69" t="s">
+      <c r="N37" s="63" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2915,7 +2922,7 @@
         <v>18.829999999999998</v>
       </c>
       <c r="M38" s="16"/>
-      <c r="N38" s="69" t="s">
+      <c r="N38" s="63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2958,7 +2965,7 @@
         <v>12.95</v>
       </c>
       <c r="M39" s="28"/>
-      <c r="N39" s="69" t="s">
+      <c r="N39" s="63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4148,21 +4155,21 @@
       <c r="M71" s="33"/>
       <c r="N71" s="33"/>
     </row>
-    <row r="72" spans="1:14" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
+    <row r="72" spans="1:14" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
@@ -4184,17 +4191,17 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="26"/>
-      <c r="E74" s="62" t="s">
+      <c r="E74" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="62" t="s">
+      <c r="F74" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="26"/>
@@ -4204,7 +4211,7 @@
       <c r="K74" s="26"/>
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
-      <c r="N74" s="62" t="s">
+      <c r="N74" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4310,17 +4317,17 @@
         <v>30</v>
       </c>
       <c r="C81" s="46"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="63"/>
-      <c r="N81" s="64"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="58"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
@@ -4588,8 +4595,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16a8de1b3ad07fcfe40131daee80152">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85720a748046338a72a4f25fe522aa39" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1619f065ca3ee2b2a551d697af78a52c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f162289ff582f7dcdaca5148f0118a53" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
     <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <xsd:element name="properties">
@@ -4614,6 +4632,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4691,6 +4710,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="25" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -4836,17 +4860,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
@@ -4856,25 +4869,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E754FF-A61B-4A88-B516-AC8192A9AA35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4883,4 +4877,8 @@
     <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AADA0EB-AE5F-4308-A18F-9BF4422BC6F9}"/>
 </file>